--- a/Archivos de trabajo/Vale/ITCRM/Metodología en R/comparacion/ITCRM_MOI.xlsx
+++ b/Archivos de trabajo/Vale/ITCRM/Metodología en R/comparacion/ITCRM_MOI.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve">mes</t>
   </si>
   <si>
-    <t xml:space="preserve">itcrm_geo</t>
+    <t xml:space="preserve">itcrm_factor</t>
   </si>
   <si>
-    <t xml:space="preserve">itcrm_geo_2002_100</t>
+    <t xml:space="preserve">itcrm_nivel</t>
   </si>
 </sst>
 </file>
@@ -371,3038 +371,3302 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>37257</v>
+        <v>36892</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267022077098126</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>64.2365067092388</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37288</v>
+        <v>36923</v>
       </c>
       <c r="B3" t="n">
-        <v>0.348337369013552</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>83.7982236708272</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37316</v>
+        <v>36951</v>
       </c>
       <c r="B4" t="n">
-        <v>0.411084915294639</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>98.8931672106158</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37347</v>
+        <v>36982</v>
       </c>
       <c r="B5" t="n">
-        <v>0.445281483464829</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>107.11970826883</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>37377</v>
+        <v>37012</v>
       </c>
       <c r="B6" t="n">
-        <v>0.480832979994694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>115.672199396838</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>37408</v>
+        <v>37043</v>
       </c>
       <c r="B7" t="n">
-        <v>0.485983660980651</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>116.911279540725</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>37438</v>
+        <v>37073</v>
       </c>
       <c r="B8" t="n">
-        <v>0.457224216831367</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>109.992727160614</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>37469</v>
+        <v>37104</v>
       </c>
       <c r="B9" t="n">
-        <v>0.440059181404231</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>105.863398509731</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>37500</v>
+        <v>37135</v>
       </c>
       <c r="B10" t="n">
-        <v>0.426282431390333</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>102.549177062888</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>37530</v>
+        <v>37165</v>
       </c>
       <c r="B11" t="n">
-        <v>0.409083836697392</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>98.4117751844032</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>37561</v>
+        <v>37196</v>
       </c>
       <c r="B12" t="n">
-        <v>0.410696754904991</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>98.79978891117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>37591</v>
+        <v>37226</v>
       </c>
       <c r="B13" t="n">
-        <v>0.406341445614442</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>97.7520483741195</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>37622</v>
+        <v>37257</v>
       </c>
       <c r="B14" t="n">
-        <v>0.305334189965452</v>
+        <v>1.37180888061812</v>
       </c>
       <c r="C14" t="n">
-        <v>73.4531090291388</v>
+        <v>137.180888061812</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>37653</v>
+        <v>37288</v>
       </c>
       <c r="B15" t="n">
-        <v>0.291352660376722</v>
+        <v>1.34175646273746</v>
       </c>
       <c r="C15" t="n">
-        <v>70.089624522568</v>
+        <v>184.063343121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>37681</v>
+        <v>37316</v>
       </c>
       <c r="B16" t="n">
-        <v>0.28748039881363</v>
+        <v>1.20117342071885</v>
       </c>
       <c r="C16" t="n">
-        <v>69.1580889784636</v>
+        <v>221.091995485599</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>37712</v>
+        <v>37347</v>
       </c>
       <c r="B17" t="n">
-        <v>0.283642341631958</v>
+        <v>1.09245931794261</v>
       </c>
       <c r="C17" t="n">
-        <v>68.2347818550218</v>
+        <v>241.534010590768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>37742</v>
+        <v>37377</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288407967137006</v>
+        <v>1.08872144234424</v>
       </c>
       <c r="C18" t="n">
-        <v>69.3812306357953</v>
+        <v>262.96325638557</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>37773</v>
+        <v>37408</v>
       </c>
       <c r="B19" t="n">
-        <v>0.286226964646157</v>
+        <v>1.01186545521309</v>
       </c>
       <c r="C19" t="n">
-        <v>68.8565549885274</v>
+        <v>266.083435126901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>37803</v>
+        <v>37438</v>
       </c>
       <c r="B20" t="n">
-        <v>0.285096096838521</v>
+        <v>0.934719499763258</v>
       </c>
       <c r="C20" t="n">
-        <v>68.5845063313454</v>
+        <v>248.713375377106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>37834</v>
+        <v>37469</v>
       </c>
       <c r="B21" t="n">
-        <v>0.291715168485789</v>
+        <v>0.958533614496834</v>
       </c>
       <c r="C21" t="n">
-        <v>70.1768317484023</v>
+        <v>238.400130673925</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>37865</v>
+        <v>37500</v>
       </c>
       <c r="B22" t="n">
-        <v>0.29588955805553</v>
+        <v>0.965415690534056</v>
       </c>
       <c r="C22" t="n">
-        <v>71.1810491019551</v>
+        <v>230.155226777977</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>37895</v>
+        <v>37530</v>
       </c>
       <c r="B23" t="n">
-        <v>0.292526757689421</v>
+        <v>0.954635682411767</v>
       </c>
       <c r="C23" t="n">
-        <v>70.3720727407981</v>
+        <v>219.714391975829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>37926</v>
+        <v>37561</v>
       </c>
       <c r="B24" t="n">
-        <v>0.295775507541211</v>
+        <v>1.00438431186996</v>
       </c>
       <c r="C24" t="n">
-        <v>71.1536123944444</v>
+        <v>220.67768839257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>37956</v>
+        <v>37591</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306219203716613</v>
+        <v>0.988282501895036</v>
       </c>
       <c r="C25" t="n">
-        <v>73.666013491504</v>
+        <v>218.091897997023</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>37987</v>
+        <v>37622</v>
       </c>
       <c r="B26" t="n">
-        <v>0.376175124651182</v>
+        <v>0.935493343386595</v>
       </c>
       <c r="C26" t="n">
-        <v>90.4950488780164</v>
+        <v>204.023518822763</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>38018</v>
+        <v>37653</v>
       </c>
       <c r="B27" t="n">
-        <v>0.377404359225693</v>
+        <v>0.948504554109745</v>
       </c>
       <c r="C27" t="n">
-        <v>90.790761261992</v>
+        <v>193.517236748886</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>38047</v>
+        <v>37681</v>
       </c>
       <c r="B28" t="n">
-        <v>0.371503905642553</v>
+        <v>0.985030375197628</v>
       </c>
       <c r="C28" t="n">
-        <v>89.3713111165209</v>
+        <v>190.620356321963</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>38078</v>
+        <v>37712</v>
       </c>
       <c r="B29" t="n">
-        <v>0.360530932803234</v>
+        <v>0.984956212294871</v>
       </c>
       <c r="C29" t="n">
-        <v>86.7315839034254</v>
+        <v>187.75270414918</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>38108</v>
+        <v>37742</v>
       </c>
       <c r="B30" t="n">
-        <v>0.358494202909606</v>
+        <v>1.01896415278058</v>
       </c>
       <c r="C30" t="n">
-        <v>86.2416153776062</v>
+        <v>191.313275115632</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38139</v>
+        <v>37773</v>
       </c>
       <c r="B31" t="n">
-        <v>0.361390405063339</v>
+        <v>0.991480053115797</v>
       </c>
       <c r="C31" t="n">
-        <v>86.9383439444027</v>
+        <v>189.683296173404</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>38169</v>
+        <v>37803</v>
       </c>
       <c r="B32" t="n">
-        <v>0.367013250328276</v>
+        <v>0.995545309044904</v>
       </c>
       <c r="C32" t="n">
-        <v>88.2910108905645</v>
+        <v>188.838315709607</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>38200</v>
+        <v>37834</v>
       </c>
       <c r="B33" t="n">
-        <v>0.37219152470839</v>
+        <v>1.02621702849472</v>
       </c>
       <c r="C33" t="n">
-        <v>89.5367290745266</v>
+        <v>193.789095213461</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38231</v>
+        <v>37865</v>
       </c>
       <c r="B34" t="n">
-        <v>0.374486694958749</v>
+        <v>1.01615832902009</v>
       </c>
       <c r="C34" t="n">
-        <v>90.0888696345444</v>
+        <v>196.920403174425</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38261</v>
+        <v>37895</v>
       </c>
       <c r="B35" t="n">
-        <v>0.375551873237876</v>
+        <v>0.987192009957245</v>
       </c>
       <c r="C35" t="n">
-        <v>90.3451156064778</v>
+        <v>194.398248611352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>38292</v>
+        <v>37926</v>
       </c>
       <c r="B36" t="n">
-        <v>0.380025829347434</v>
+        <v>1.01252888513008</v>
       </c>
       <c r="C36" t="n">
-        <v>91.4213985669419</v>
+        <v>196.833841937691</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38322</v>
+        <v>37956</v>
       </c>
       <c r="B37" t="n">
-        <v>0.386603963627303</v>
+        <v>1.03991555090773</v>
       </c>
       <c r="C37" t="n">
-        <v>93.0038758339725</v>
+        <v>204.69057317592</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38353</v>
+        <v>37987</v>
       </c>
       <c r="B38" t="n">
-        <v>0.387023380041048</v>
+        <v>1.00689619696832</v>
       </c>
       <c r="C38" t="n">
-        <v>93.1047732787392</v>
+        <v>206.1021596861</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38384</v>
+        <v>38018</v>
       </c>
       <c r="B39" t="n">
-        <v>0.387455511635982</v>
+        <v>1.00377619998386</v>
       </c>
       <c r="C39" t="n">
-        <v>93.2087295672937</v>
+        <v>206.880442658179</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38412</v>
+        <v>38047</v>
       </c>
       <c r="B40" t="n">
-        <v>0.378941999148998</v>
+        <v>0.981943460139225</v>
       </c>
       <c r="C40" t="n">
-        <v>91.1606655722394</v>
+        <v>203.144897698907</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>38443</v>
+        <v>38078</v>
       </c>
       <c r="B41" t="n">
-        <v>0.383181997792186</v>
+        <v>0.965916940080156</v>
       </c>
       <c r="C41" t="n">
-        <v>92.1806662562658</v>
+        <v>196.221097978225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>38473</v>
+        <v>38108</v>
       </c>
       <c r="B42" t="n">
-        <v>0.387846918234257</v>
+        <v>0.993470795677989</v>
       </c>
       <c r="C42" t="n">
-        <v>93.3028887950601</v>
+        <v>194.939930337236</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>38504</v>
+        <v>38139</v>
       </c>
       <c r="B43" t="n">
-        <v>0.385416804958178</v>
+        <v>1.0093542754041</v>
       </c>
       <c r="C43" t="n">
-        <v>92.7182854938667</v>
+        <v>196.763452132865</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>38534</v>
+        <v>38169</v>
       </c>
       <c r="B44" t="n">
-        <v>0.385318372111617</v>
+        <v>1.01801857957399</v>
       </c>
       <c r="C44" t="n">
-        <v>92.6946058705291</v>
+        <v>200.308850052375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>38565</v>
+        <v>38200</v>
       </c>
       <c r="B45" t="n">
-        <v>0.391576759624911</v>
+        <v>1.01633703537271</v>
       </c>
       <c r="C45" t="n">
-        <v>94.2001628486474</v>
+        <v>203.581302821148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>38596</v>
+        <v>38231</v>
       </c>
       <c r="B46" t="n">
-        <v>0.39708654141342</v>
+        <v>1.00713962451378</v>
       </c>
       <c r="C46" t="n">
-        <v>95.5256305353285</v>
+        <v>205.034796881319</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38626</v>
+        <v>38261</v>
       </c>
       <c r="B47" t="n">
-        <v>0.404458737742266</v>
+        <v>1.00329228548944</v>
       </c>
       <c r="C47" t="n">
-        <v>97.2991323524299</v>
+        <v>205.70982996792</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>38657</v>
+        <v>38292</v>
       </c>
       <c r="B48" t="n">
-        <v>0.404236719755784</v>
+        <v>1.01378660224762</v>
       </c>
       <c r="C48" t="n">
-        <v>97.245722312207</v>
+        <v>208.545869572114</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>38687</v>
+        <v>38322</v>
       </c>
       <c r="B49" t="n">
-        <v>0.404642901107335</v>
+        <v>1.02004579299756</v>
       </c>
       <c r="C49" t="n">
-        <v>97.3434358473484</v>
+        <v>212.726336904052</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>38718</v>
+        <v>38353</v>
       </c>
       <c r="B50" t="n">
-        <v>0.464893941226433</v>
+        <v>0.980930140720274</v>
       </c>
       <c r="C50" t="n">
-        <v>111.837804196625</v>
+        <v>208.6696755942</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>38749</v>
+        <v>38384</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476963793735581</v>
+        <v>1.00112175889956</v>
       </c>
       <c r="C51" t="n">
-        <v>114.74140366716</v>
+        <v>208.903752659867</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>38777</v>
+        <v>38412</v>
       </c>
       <c r="B52" t="n">
-        <v>0.474494374084927</v>
+        <v>0.975695884170451</v>
       </c>
       <c r="C52" t="n">
-        <v>114.14734457781</v>
+        <v>203.826531657994</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>38808</v>
+        <v>38443</v>
       </c>
       <c r="B53" t="n">
-        <v>0.473343840659343</v>
+        <v>1.01120163744832</v>
       </c>
       <c r="C53" t="n">
-        <v>113.870565036153</v>
+        <v>206.109722567976</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>38838</v>
+        <v>38473</v>
       </c>
       <c r="B54" t="n">
-        <v>0.466796201942231</v>
+        <v>1.01357676893965</v>
       </c>
       <c r="C54" t="n">
-        <v>112.29542397309</v>
+        <v>208.908026647498</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>38869</v>
+        <v>38504</v>
       </c>
       <c r="B55" t="n">
-        <v>0.457855967962354</v>
+        <v>0.993910581273131</v>
       </c>
       <c r="C55" t="n">
-        <v>110.144705177582</v>
+        <v>207.635898197837</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>38899</v>
+        <v>38534</v>
       </c>
       <c r="B56" t="n">
-        <v>0.463252953411869</v>
+        <v>0.998301721307741</v>
       </c>
       <c r="C56" t="n">
-        <v>111.44303786904</v>
+        <v>207.28327457618</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>38930</v>
+        <v>38565</v>
       </c>
       <c r="B57" t="n">
-        <v>0.466013046056266</v>
+        <v>1.01768855270376</v>
       </c>
       <c r="C57" t="n">
-        <v>112.107023078041</v>
+        <v>210.949815703128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>38961</v>
+        <v>38596</v>
       </c>
       <c r="B58" t="n">
-        <v>0.46384117652047</v>
+        <v>1.01486638339173</v>
       </c>
       <c r="C58" t="n">
-        <v>111.58454451176</v>
+        <v>214.085876539785</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>38991</v>
+        <v>38626</v>
       </c>
       <c r="B59" t="n">
-        <v>0.463281823760651</v>
+        <v>1.02208989862196</v>
       </c>
       <c r="C59" t="n">
-        <v>111.449983101335</v>
+        <v>218.815011848942</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>39022</v>
+        <v>38657</v>
       </c>
       <c r="B60" t="n">
-        <v>0.459052036967439</v>
+        <v>0.998550348355148</v>
       </c>
       <c r="C60" t="n">
-        <v>110.432439044028</v>
+        <v>218.497806307097</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>39052</v>
+        <v>38687</v>
       </c>
       <c r="B61" t="n">
-        <v>0.456550685665514</v>
+        <v>1.00163461250611</v>
       </c>
       <c r="C61" t="n">
-        <v>109.830698276244</v>
+        <v>218.854965553845</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>39083</v>
+        <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.672721974483839</v>
+        <v>1.00401351963296</v>
       </c>
       <c r="C62" t="n">
-        <v>161.83422021507</v>
+        <v>219.733344254866</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>39114</v>
+        <v>38749</v>
       </c>
       <c r="B63" t="n">
-        <v>0.684358846929385</v>
+        <v>1.02840959361465</v>
       </c>
       <c r="C63" t="n">
-        <v>164.633659284103</v>
+        <v>225.975879268735</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>39142</v>
+        <v>38777</v>
       </c>
       <c r="B64" t="n">
-        <v>0.683824698411898</v>
+        <v>0.994838864396276</v>
       </c>
       <c r="C64" t="n">
-        <v>164.505161164396</v>
+        <v>224.809587112659</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>39173</v>
+        <v>38808</v>
       </c>
       <c r="B65" t="n">
-        <v>0.69263446316173</v>
+        <v>0.997253351184181</v>
       </c>
       <c r="C65" t="n">
-        <v>166.624493463094</v>
+        <v>224.192114126431</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>39203</v>
+        <v>38838</v>
       </c>
       <c r="B66" t="n">
-        <v>0.702821460314751</v>
+        <v>0.98670420929965</v>
       </c>
       <c r="C66" t="n">
-        <v>169.075141432275</v>
+        <v>221.211302700337</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>39234</v>
+        <v>38869</v>
       </c>
       <c r="B67" t="n">
-        <v>0.712225850830212</v>
+        <v>0.98115405415926</v>
       </c>
       <c r="C67" t="n">
-        <v>171.33752063705</v>
+        <v>217.042366470287</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>39264</v>
+        <v>38899</v>
       </c>
       <c r="B68" t="n">
-        <v>0.731115464959098</v>
+        <v>1.01252397560175</v>
       </c>
       <c r="C68" t="n">
-        <v>175.881724763959</v>
+        <v>219.760599772506</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>39295</v>
+        <v>38930</v>
       </c>
       <c r="B69" t="n">
-        <v>0.717303256855601</v>
+        <v>1.00632086781748</v>
       </c>
       <c r="C69" t="n">
-        <v>172.558973296545</v>
+        <v>221.149677475157</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>39326</v>
+        <v>38961</v>
       </c>
       <c r="B70" t="n">
-        <v>0.729733951107187</v>
+        <v>0.996050297081862</v>
       </c>
       <c r="C70" t="n">
-        <v>175.549379121301</v>
+        <v>220.276201948688</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>39356</v>
+        <v>38991</v>
       </c>
       <c r="B71" t="n">
-        <v>0.758264479563994</v>
+        <v>0.998699471015175</v>
       </c>
       <c r="C71" t="n">
-        <v>182.412862105744</v>
+        <v>219.989726363387</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>39387</v>
+        <v>39022</v>
       </c>
       <c r="B72" t="n">
-        <v>0.758977059730804</v>
+        <v>0.988720002480764</v>
       </c>
       <c r="C72" t="n">
-        <v>182.584284862857</v>
+        <v>217.50824279575</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>39417</v>
+        <v>39052</v>
       </c>
       <c r="B73" t="n">
-        <v>0.754317944961225</v>
+        <v>0.993521267873609</v>
       </c>
       <c r="C73" t="n">
-        <v>181.463458973074</v>
+        <v>216.099065155395</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>39448</v>
+        <v>39083</v>
       </c>
       <c r="B74" t="n">
-        <v>0.909714448217437</v>
+        <v>1.00245233878948</v>
       </c>
       <c r="C74" t="n">
-        <v>218.846617071802</v>
+        <v>216.629013275246</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>39479</v>
+        <v>39114</v>
       </c>
       <c r="B75" t="n">
-        <v>0.928880113694471</v>
+        <v>1.01866238275751</v>
       </c>
       <c r="C75" t="n">
-        <v>223.457229843532</v>
+        <v>220.67182683737</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>39508</v>
+        <v>39142</v>
       </c>
       <c r="B76" t="n">
-        <v>0.937691062896511</v>
+        <v>0.999277043714763</v>
       </c>
       <c r="C76" t="n">
-        <v>225.576847081487</v>
+        <v>220.512290753184</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>39539</v>
+        <v>39173</v>
       </c>
       <c r="B77" t="n">
-        <v>0.945125029495622</v>
+        <v>1.01353688905221</v>
       </c>
       <c r="C77" t="n">
-        <v>227.365208742476</v>
+        <v>223.497341167759</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>39569</v>
+        <v>39203</v>
       </c>
       <c r="B78" t="n">
-        <v>0.947609684525517</v>
+        <v>1.01501051285668</v>
       </c>
       <c r="C78" t="n">
-        <v>227.962932950274</v>
+        <v>226.852150880791</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>39600</v>
+        <v>39234</v>
       </c>
       <c r="B79" t="n">
-        <v>0.931562704131579</v>
+        <v>1.0131599120148</v>
       </c>
       <c r="C79" t="n">
-        <v>224.102570635141</v>
+        <v>229.83750522675</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>39630</v>
+        <v>39264</v>
       </c>
       <c r="B80" t="n">
-        <v>0.936508866915075</v>
+        <v>1.02910498488882</v>
       </c>
       <c r="C80" t="n">
-        <v>225.292450596678</v>
+        <v>236.526922343259</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>39661</v>
+        <v>39295</v>
       </c>
       <c r="B81" t="n">
-        <v>0.924784382865155</v>
+        <v>0.984325076682475</v>
       </c>
       <c r="C81" t="n">
-        <v>222.471935130242</v>
+        <v>232.819380972998</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>39692</v>
+        <v>39326</v>
       </c>
       <c r="B82" t="n">
-        <v>0.878303901147595</v>
+        <v>1.01873760775396</v>
       </c>
       <c r="C82" t="n">
-        <v>211.290298734681</v>
+        <v>237.181859211189</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>39722</v>
+        <v>39356</v>
       </c>
       <c r="B83" t="n">
-        <v>0.803263974233283</v>
+        <v>1.04353440001335</v>
       </c>
       <c r="C83" t="n">
-        <v>193.238222962232</v>
+        <v>247.507429145998</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>39753</v>
+        <v>39387</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7927457743875</v>
+        <v>1.00100799620458</v>
       </c>
       <c r="C84" t="n">
-        <v>190.707898794638</v>
+        <v>247.756915695182</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>39783</v>
+        <v>39417</v>
       </c>
       <c r="B85" t="n">
-        <v>0.788727030680301</v>
+        <v>0.994445321833303</v>
       </c>
       <c r="C85" t="n">
-        <v>189.741124586618</v>
+        <v>246.380705764922</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>39814</v>
+        <v>39448</v>
       </c>
       <c r="B86" t="n">
-        <v>1.21991477496451</v>
+        <v>1.00734327056667</v>
       </c>
       <c r="C86" t="n">
-        <v>293.470354505221</v>
+        <v>248.189945949761</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>39845</v>
+        <v>39479</v>
       </c>
       <c r="B87" t="n">
-        <v>1.21645516539867</v>
+        <v>1.02463376922991</v>
       </c>
       <c r="C87" t="n">
-        <v>292.638089115397</v>
+        <v>254.30379980347</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>39873</v>
+        <v>39508</v>
       </c>
       <c r="B88" t="n">
-        <v>1.26589150511252</v>
+        <v>1.01192001204154</v>
       </c>
       <c r="C88" t="n">
-        <v>304.530805261643</v>
+        <v>257.335104159338</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>39904</v>
+        <v>39539</v>
       </c>
       <c r="B89" t="n">
-        <v>1.31136685411734</v>
+        <v>1.01316573753267</v>
       </c>
       <c r="C89" t="n">
-        <v>315.470640623568</v>
+        <v>260.723110598643</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>39934</v>
+        <v>39569</v>
       </c>
       <c r="B90" t="n">
-        <v>1.37217406750404</v>
+        <v>1.00464877960376</v>
       </c>
       <c r="C90" t="n">
-        <v>330.098805504668</v>
+        <v>261.935154877422</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>39965</v>
+        <v>39600</v>
       </c>
       <c r="B91" t="n">
-        <v>1.42889777321165</v>
+        <v>0.981450549751615</v>
       </c>
       <c r="C91" t="n">
-        <v>343.744616150207</v>
+        <v>257.07640175372</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>39995</v>
+        <v>39630</v>
       </c>
       <c r="B92" t="n">
-        <v>1.44100115255151</v>
+        <v>1.0057581269006</v>
       </c>
       <c r="C92" t="n">
-        <v>346.656281045556</v>
+        <v>258.556680298167</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>40026</v>
+        <v>39661</v>
       </c>
       <c r="B93" t="n">
-        <v>1.47539333177018</v>
+        <v>0.988574370294027</v>
       </c>
       <c r="C93" t="n">
-        <v>354.929879525256</v>
+        <v>255.602507411074</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>40057</v>
+        <v>39692</v>
       </c>
       <c r="B94" t="n">
-        <v>1.48849398502639</v>
+        <v>0.947900196433213</v>
       </c>
       <c r="C94" t="n">
-        <v>358.081454892856</v>
+        <v>242.285666983779</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>40087</v>
+        <v>39722</v>
       </c>
       <c r="B95" t="n">
-        <v>1.51213566923351</v>
+        <v>0.910303786838926</v>
       </c>
       <c r="C95" t="n">
-        <v>363.768846821988</v>
+        <v>220.553560152129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>40118</v>
+        <v>39753</v>
       </c>
       <c r="B96" t="n">
-        <v>1.51200465546199</v>
+        <v>0.982034631973762</v>
       </c>
       <c r="C96" t="n">
-        <v>363.737329326864</v>
+        <v>216.591234274499</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>40148</v>
+        <v>39783</v>
       </c>
       <c r="B97" t="n">
-        <v>1.47987013956579</v>
+        <v>0.996047863726849</v>
       </c>
       <c r="C97" t="n">
-        <v>356.006848505213</v>
+        <v>215.735236201076</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>40179</v>
+        <v>39814</v>
       </c>
       <c r="B98" t="n">
-        <v>1.44358377579974</v>
+        <v>1.01720999014219</v>
       </c>
       <c r="C98" t="n">
-        <v>347.277573102808</v>
+        <v>219.448037489419</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>40210</v>
+        <v>39845</v>
       </c>
       <c r="B99" t="n">
-        <v>1.4000997972998</v>
+        <v>0.99727736500817</v>
       </c>
       <c r="C99" t="n">
-        <v>336.816794327466</v>
+        <v>218.850560583662</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>40238</v>
+        <v>39873</v>
       </c>
       <c r="B100" t="n">
-        <v>1.4063295180411</v>
+        <v>1.04343782812131</v>
       </c>
       <c r="C100" t="n">
-        <v>338.315455046999</v>
+        <v>228.356953618547</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>40269</v>
+        <v>39904</v>
       </c>
       <c r="B101" t="n">
-        <v>1.41092948337553</v>
+        <v>1.03696328492202</v>
       </c>
       <c r="C101" t="n">
-        <v>339.422051577439</v>
+        <v>236.797776759073</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>40299</v>
+        <v>39934</v>
       </c>
       <c r="B102" t="n">
-        <v>1.36404937917969</v>
+        <v>1.04850872761296</v>
       </c>
       <c r="C102" t="n">
-        <v>328.144279490455</v>
+        <v>248.284535611233</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>40330</v>
+        <v>39965</v>
       </c>
       <c r="B103" t="n">
-        <v>1.34580898281742</v>
+        <v>1.04421207477183</v>
       </c>
       <c r="C103" t="n">
-        <v>323.756255264003</v>
+        <v>259.261710064366</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>40360</v>
+        <v>39995</v>
       </c>
       <c r="B104" t="n">
-        <v>1.37316877947505</v>
+        <v>1.00947549950997</v>
       </c>
       <c r="C104" t="n">
-        <v>330.338099659272</v>
+        <v>261.718344271036</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>40391</v>
+        <v>40026</v>
       </c>
       <c r="B105" t="n">
-        <v>1.37149617461132</v>
+        <v>1.02656924439012</v>
       </c>
       <c r="C105" t="n">
-        <v>329.935727335909</v>
+        <v>268.67200292135</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>40422</v>
+        <v>40057</v>
       </c>
       <c r="B106" t="n">
-        <v>1.39995720792831</v>
+        <v>1.01063398525669</v>
       </c>
       <c r="C106" t="n">
-        <v>336.782492133363</v>
+        <v>271.5290570393</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>40452</v>
+        <v>40087</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4467425694629</v>
+        <v>1.0179357967276</v>
       </c>
       <c r="C107" t="n">
-        <v>348.037472331148</v>
+        <v>276.399147011994</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>40483</v>
+        <v>40118</v>
       </c>
       <c r="B108" t="n">
-        <v>1.42659971516073</v>
+        <v>0.999574871564638</v>
       </c>
       <c r="C108" t="n">
-        <v>343.191780882763</v>
+        <v>276.28164187509</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>40513</v>
+        <v>40148</v>
       </c>
       <c r="B109" t="n">
-        <v>1.413282966355</v>
+        <v>0.980582768758537</v>
       </c>
       <c r="C109" t="n">
-        <v>339.988220213544</v>
+        <v>270.91701734703</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>40544</v>
+        <v>40179</v>
       </c>
       <c r="B110" t="n">
-        <v>1.55557583693464</v>
+        <v>0.983756321970114</v>
       </c>
       <c r="C110" t="n">
-        <v>374.219086196611</v>
+        <v>266.516328544428</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>40575</v>
+        <v>40210</v>
       </c>
       <c r="B111" t="n">
-        <v>1.58223416445623</v>
+        <v>0.969612404274564</v>
       </c>
       <c r="C111" t="n">
-        <v>380.632180774063</v>
+        <v>258.417538098392</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>40603</v>
+        <v>40238</v>
       </c>
       <c r="B112" t="n">
-        <v>1.60461993996947</v>
+        <v>1.00396928892851</v>
       </c>
       <c r="C112" t="n">
-        <v>386.017443425657</v>
+        <v>259.443271971298</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>40634</v>
+        <v>40269</v>
       </c>
       <c r="B113" t="n">
-        <v>1.65968874058064</v>
+        <v>1.0036255974869</v>
       </c>
       <c r="C113" t="n">
-        <v>399.265139714938</v>
+        <v>260.38390884615</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>40664</v>
+        <v>40299</v>
       </c>
       <c r="B114" t="n">
-        <v>1.64781250729352</v>
+        <v>0.966362916058145</v>
       </c>
       <c r="C114" t="n">
-        <v>396.408118499617</v>
+        <v>251.625353447184</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>40695</v>
+        <v>40330</v>
       </c>
       <c r="B115" t="n">
-        <v>1.65370820457959</v>
+        <v>0.98394202621364</v>
       </c>
       <c r="C115" t="n">
-        <v>397.826424440414</v>
+        <v>247.584760117545</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>40725</v>
+        <v>40360</v>
       </c>
       <c r="B116" t="n">
-        <v>1.65832664372369</v>
+        <v>1.01895840205965</v>
       </c>
       <c r="C116" t="n">
-        <v>398.93746514645</v>
+        <v>252.278571543695</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>40756</v>
+        <v>40391</v>
       </c>
       <c r="B117" t="n">
-        <v>1.65381750082755</v>
+        <v>0.999082408795936</v>
       </c>
       <c r="C117" t="n">
-        <v>397.85271743177</v>
+        <v>252.047082945473</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>40787</v>
+        <v>40422</v>
       </c>
       <c r="B118" t="n">
-        <v>1.57861914928616</v>
+        <v>1.02194873868004</v>
       </c>
       <c r="C118" t="n">
-        <v>379.762530036752</v>
+        <v>257.579198504109</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>40817</v>
+        <v>40452</v>
       </c>
       <c r="B119" t="n">
-        <v>1.56195084981319</v>
+        <v>1.03371793649959</v>
       </c>
       <c r="C119" t="n">
-        <v>375.752699304541</v>
+        <v>266.264237562886</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>40848</v>
+        <v>40483</v>
       </c>
       <c r="B120" t="n">
-        <v>1.56589173913757</v>
+        <v>0.987281464176349</v>
       </c>
       <c r="C120" t="n">
-        <v>376.700744373612</v>
+        <v>262.877746318885</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>40878</v>
+        <v>40513</v>
       </c>
       <c r="B121" t="n">
-        <v>1.53155646500954</v>
+        <v>0.990902433422897</v>
       </c>
       <c r="C121" t="n">
-        <v>368.440835339656</v>
+        <v>260.48619852011</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>40909</v>
+        <v>40544</v>
       </c>
       <c r="B122" t="n">
-        <v>1.4336314804339</v>
+        <v>1.00904267588332</v>
       </c>
       <c r="C122" t="n">
-        <v>344.883386468551</v>
+        <v>262.841690785407</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>40940</v>
+        <v>40575</v>
       </c>
       <c r="B123" t="n">
-        <v>1.48265847061241</v>
+        <v>1.02032753827549</v>
       </c>
       <c r="C123" t="n">
-        <v>356.677626921479</v>
+        <v>268.184615315242</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>40969</v>
+        <v>40603</v>
       </c>
       <c r="B124" t="n">
-        <v>1.45020459036286</v>
+        <v>1.01826244189163</v>
       </c>
       <c r="C124" t="n">
-        <v>348.870317806641</v>
+        <v>273.082321268665</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>41000</v>
+        <v>40634</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44054205471865</v>
+        <v>1.03711542411681</v>
       </c>
       <c r="C125" t="n">
-        <v>346.545837589565</v>
+        <v>283.217887441354</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>41030</v>
+        <v>40664</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3926086549321</v>
+        <v>0.994229173154911</v>
       </c>
       <c r="C126" t="n">
-        <v>335.014678104748</v>
+        <v>281.583486053498</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>41061</v>
+        <v>40695</v>
       </c>
       <c r="B127" t="n">
-        <v>1.368673453078</v>
+        <v>1.00392585899226</v>
       </c>
       <c r="C127" t="n">
-        <v>329.256675728327</v>
+        <v>282.688943114292</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>41091</v>
+        <v>40725</v>
       </c>
       <c r="B128" t="n">
-        <v>1.37306181800313</v>
+        <v>1.00503195852787</v>
       </c>
       <c r="C128" t="n">
-        <v>330.31236833629</v>
+        <v>284.111422152329</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>41122</v>
+        <v>40756</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38340193138307</v>
+        <v>0.998081701549309</v>
       </c>
       <c r="C129" t="n">
-        <v>332.799850905983</v>
+        <v>283.566411651391</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>41153</v>
+        <v>40787</v>
       </c>
       <c r="B130" t="n">
-        <v>1.41602433086345</v>
+        <v>0.952132550596834</v>
       </c>
       <c r="C130" t="n">
-        <v>340.647700064623</v>
+        <v>269.99281078923</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>41183</v>
+        <v>40817</v>
       </c>
       <c r="B131" t="n">
-        <v>1.43293084224842</v>
+        <v>0.987383921446295</v>
       </c>
       <c r="C131" t="n">
-        <v>344.714836549415</v>
+        <v>266.586560279378</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>41214</v>
+        <v>40848</v>
       </c>
       <c r="B132" t="n">
-        <v>1.4287253688477</v>
+        <v>1.002773947921</v>
       </c>
       <c r="C132" t="n">
-        <v>343.703141474399</v>
+        <v>267.326057514031</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>41244</v>
+        <v>40878</v>
       </c>
       <c r="B133" t="n">
-        <v>1.44542907186647</v>
+        <v>0.977643428294186</v>
       </c>
       <c r="C133" t="n">
-        <v>347.721489105783</v>
+        <v>261.349563340386</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>41275</v>
+        <v>40909</v>
       </c>
       <c r="B134" t="n">
-        <v>1.25141271850212</v>
+        <v>1.00152488555549</v>
       </c>
       <c r="C134" t="n">
-        <v>301.047697485131</v>
+        <v>261.748091514459</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>41306</v>
+        <v>40940</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28113880751756</v>
+        <v>1.03764387822034</v>
       </c>
       <c r="C135" t="n">
-        <v>308.198792020951</v>
+        <v>271.601304795836</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>41334</v>
+        <v>40969</v>
       </c>
       <c r="B136" t="n">
-        <v>1.28424860915541</v>
+        <v>0.978570536657376</v>
       </c>
       <c r="C136" t="n">
-        <v>308.946905420207</v>
+        <v>265.781034590905</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>41365</v>
+        <v>41000</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29115863755137</v>
+        <v>0.99393472812282</v>
       </c>
       <c r="C137" t="n">
-        <v>310.609225218788</v>
+        <v>264.169000356312</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>41395</v>
+        <v>41030</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29293289070822</v>
+        <v>0.965770771076185</v>
       </c>
       <c r="C138" t="n">
-        <v>311.03605069349</v>
+        <v>255.126699168541</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>41426</v>
+        <v>41061</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26553879382276</v>
+        <v>0.980136240121983</v>
       </c>
       <c r="C139" t="n">
-        <v>304.445954820146</v>
+        <v>250.058923677786</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>41456</v>
+        <v>41091</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25419470801693</v>
+        <v>1.00527681387342</v>
       </c>
       <c r="C140" t="n">
-        <v>301.716950342705</v>
+        <v>251.378438075422</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>41487</v>
+        <v>41122</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25335831069504</v>
+        <v>1.00960461940798</v>
       </c>
       <c r="C141" t="n">
-        <v>301.515741353683</v>
+        <v>253.792832300508</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>41518</v>
+        <v>41153</v>
       </c>
       <c r="B142" t="n">
-        <v>1.29459025724878</v>
+        <v>1.02546542935658</v>
       </c>
       <c r="C142" t="n">
-        <v>311.434757190195</v>
+        <v>260.255775742664</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>41548</v>
+        <v>41183</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33580937075487</v>
+        <v>1.01513566501923</v>
       </c>
       <c r="C143" t="n">
-        <v>321.350685828221</v>
+        <v>264.194919983625</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>41579</v>
+        <v>41214</v>
       </c>
       <c r="B144" t="n">
-        <v>1.32966544416086</v>
+        <v>0.998986874495572</v>
       </c>
       <c r="C144" t="n">
-        <v>319.872664287209</v>
+        <v>263.927257372049</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>41609</v>
+        <v>41244</v>
       </c>
       <c r="B145" t="n">
-        <v>1.36237568852654</v>
+        <v>1.01533746210811</v>
       </c>
       <c r="C145" t="n">
-        <v>327.741645962776</v>
+        <v>267.975231681292</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>41640</v>
+        <v>41275</v>
       </c>
       <c r="B146" t="n">
-        <v>1.52777549301731</v>
+        <v>1.02579918250286</v>
       </c>
       <c r="C146" t="n">
-        <v>367.531260987654</v>
+        <v>274.888773589683</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>41671</v>
+        <v>41306</v>
       </c>
       <c r="B147" t="n">
-        <v>1.60913480035388</v>
+        <v>1.02667339681409</v>
       </c>
       <c r="C147" t="n">
-        <v>387.103566575195</v>
+        <v>282.220990927378</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>41699</v>
+        <v>41334</v>
       </c>
       <c r="B148" t="n">
-        <v>1.62018554117908</v>
+        <v>1.00460134135954</v>
       </c>
       <c r="C148" t="n">
-        <v>389.76200214305</v>
+        <v>283.519586045461</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>41730</v>
+        <v>41365</v>
       </c>
       <c r="B149" t="n">
-        <v>1.64432175175214</v>
+        <v>1.00640616146582</v>
       </c>
       <c r="C149" t="n">
-        <v>395.568360438445</v>
+        <v>285.335858292391</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>41760</v>
+        <v>41395</v>
       </c>
       <c r="B150" t="n">
-        <v>1.6397275623073</v>
+        <v>1.00035417422391</v>
       </c>
       <c r="C150" t="n">
-        <v>394.463153392254</v>
+        <v>285.436916898556</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>41791</v>
+        <v>41426</v>
       </c>
       <c r="B151" t="n">
-        <v>1.63277694990286</v>
+        <v>0.973946345306595</v>
       </c>
       <c r="C151" t="n">
-        <v>392.791070449889</v>
+        <v>278.000242028931</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>41821</v>
+        <v>41456</v>
       </c>
       <c r="B152" t="n">
-        <v>1.62190521066082</v>
+        <v>0.991854632090925</v>
       </c>
       <c r="C152" t="n">
-        <v>390.1756966263</v>
+        <v>275.735827778793</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>41852</v>
+        <v>41487</v>
       </c>
       <c r="B153" t="n">
-        <v>1.60708653297892</v>
+        <v>1.00177877286198</v>
       </c>
       <c r="C153" t="n">
-        <v>386.610822520457</v>
+        <v>276.22629918632</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>41883</v>
+        <v>41518</v>
       </c>
       <c r="B154" t="n">
-        <v>1.57770871654616</v>
+        <v>1.03740188534767</v>
       </c>
       <c r="C154" t="n">
-        <v>379.543510622903</v>
+        <v>286.557683558498</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>41913</v>
+        <v>41548</v>
       </c>
       <c r="B155" t="n">
-        <v>1.53414044551836</v>
+        <v>1.0360342300315</v>
       </c>
       <c r="C155" t="n">
-        <v>369.062453908033</v>
+        <v>296.883569045138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>41944</v>
+        <v>41579</v>
       </c>
       <c r="B156" t="n">
-        <v>1.50074985689716</v>
+        <v>0.999247555820146</v>
       </c>
       <c r="C156" t="n">
-        <v>361.029804348488</v>
+        <v>296.660180731516</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>41974</v>
+        <v>41609</v>
       </c>
       <c r="B157" t="n">
-        <v>1.46751387296992</v>
+        <v>1.03011380281294</v>
       </c>
       <c r="C157" t="n">
-        <v>353.034347464428</v>
+        <v>305.593746916516</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>42005</v>
+        <v>41640</v>
       </c>
       <c r="B158" t="n">
-        <v>1.21060403544572</v>
+        <v>1.07349273694969</v>
       </c>
       <c r="C158" t="n">
-        <v>291.230504571961</v>
+        <v>328.052667772122</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>42036</v>
+        <v>41671</v>
       </c>
       <c r="B159" t="n">
-        <v>1.18852823109767</v>
+        <v>1.06782151441588</v>
       </c>
       <c r="C159" t="n">
-        <v>285.919810529257</v>
+        <v>350.301696508598</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>42064</v>
+        <v>41699</v>
       </c>
       <c r="B160" t="n">
-        <v>1.14648982001097</v>
+        <v>1.00543097221814</v>
       </c>
       <c r="C160" t="n">
-        <v>275.806786523291</v>
+        <v>352.204175290304</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>42095</v>
+        <v>41730</v>
       </c>
       <c r="B161" t="n">
-        <v>1.15778881672094</v>
+        <v>1.01326189074769</v>
       </c>
       <c r="C161" t="n">
-        <v>278.524944084851</v>
+        <v>356.875068583885</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>42125</v>
+        <v>41760</v>
       </c>
       <c r="B162" t="n">
-        <v>1.16597047580972</v>
+        <v>0.995762945069372</v>
       </c>
       <c r="C162" t="n">
-        <v>280.493175343707</v>
+        <v>355.362969314923</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>42156</v>
+        <v>41791</v>
       </c>
       <c r="B163" t="n">
-        <v>1.16401648104346</v>
+        <v>0.996115790622136</v>
       </c>
       <c r="C163" t="n">
-        <v>280.023110099377</v>
+        <v>353.982665136964</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>42186</v>
+        <v>41821</v>
       </c>
       <c r="B164" t="n">
-        <v>1.14289426405313</v>
+        <v>0.994010026404281</v>
       </c>
       <c r="C164" t="n">
-        <v>274.941817016203</v>
+        <v>351.862318319452</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>42217</v>
+        <v>41852</v>
       </c>
       <c r="B165" t="n">
-        <v>1.10352016647208</v>
+        <v>0.989672087224137</v>
       </c>
       <c r="C165" t="n">
-        <v>265.469736988507</v>
+        <v>348.228314986735</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>42248</v>
+        <v>41883</v>
       </c>
       <c r="B166" t="n">
-        <v>1.06519054537954</v>
+        <v>0.978796564375049</v>
       </c>
       <c r="C166" t="n">
-        <v>256.248922780066</v>
+        <v>340.844678327129</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>42278</v>
+        <v>41913</v>
       </c>
       <c r="B167" t="n">
-        <v>1.07275252468077</v>
+        <v>0.96847863186584</v>
       </c>
       <c r="C167" t="n">
-        <v>258.06807998009</v>
+        <v>330.10078774501</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>42309</v>
+        <v>41944</v>
       </c>
       <c r="B168" t="n">
-        <v>1.07516580375597</v>
+        <v>0.977266167749553</v>
       </c>
       <c r="C168" t="n">
-        <v>258.648633540268</v>
+        <v>322.596331810675</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>42339</v>
+        <v>41974</v>
       </c>
       <c r="B169" t="n">
-        <v>1.19089802184454</v>
+        <v>0.976308520436489</v>
       </c>
       <c r="C169" t="n">
-        <v>286.489902264239</v>
+        <v>314.953547408319</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>42370</v>
+        <v>42005</v>
       </c>
       <c r="B170" t="n">
-        <v>1.86441566977918</v>
+        <v>0.990757898034634</v>
       </c>
       <c r="C170" t="n">
-        <v>448.515534678315</v>
+        <v>312.042714608817</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>42401</v>
+        <v>42036</v>
       </c>
       <c r="B171" t="n">
-        <v>1.94346658696473</v>
+        <v>0.980763193988323</v>
       </c>
       <c r="C171" t="n">
-        <v>467.532519443567</v>
+        <v>306.04000944053</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>42430</v>
+        <v>42064</v>
       </c>
       <c r="B172" t="n">
-        <v>1.95918128362195</v>
+        <v>0.963045108101319</v>
       </c>
       <c r="C172" t="n">
-        <v>471.312945497567</v>
+        <v>294.730333974984</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>42461</v>
+        <v>42095</v>
       </c>
       <c r="B173" t="n">
-        <v>1.8287543921445</v>
+        <v>1.00460371987632</v>
       </c>
       <c r="C173" t="n">
-        <v>439.936633918739</v>
+        <v>296.087189871659</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>42491</v>
+        <v>42125</v>
       </c>
       <c r="B174" t="n">
-        <v>1.7483896655592</v>
+        <v>1.00573159806622</v>
       </c>
       <c r="C174" t="n">
-        <v>420.603590918759</v>
+        <v>297.784242636561</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>42522</v>
+        <v>42156</v>
       </c>
       <c r="B175" t="n">
-        <v>1.72566240515456</v>
+        <v>0.998341336695109</v>
       </c>
       <c r="C175" t="n">
-        <v>415.136178518514</v>
+        <v>297.290318840525</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>42552</v>
+        <v>42186</v>
       </c>
       <c r="B176" t="n">
-        <v>1.79535811421897</v>
+        <v>0.979246971098471</v>
       </c>
       <c r="C176" t="n">
-        <v>431.90261570444</v>
+        <v>291.120644261483</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>42583</v>
+        <v>42217</v>
       </c>
       <c r="B177" t="n">
-        <v>1.80359959659206</v>
+        <v>0.962259715574923</v>
       </c>
       <c r="C177" t="n">
-        <v>433.885238428023</v>
+        <v>280.133668345043</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>42614</v>
+        <v>42248</v>
       </c>
       <c r="B178" t="n">
-        <v>1.80721207579061</v>
+        <v>0.963477480421613</v>
       </c>
       <c r="C178" t="n">
-        <v>434.754279096106</v>
+        <v>269.902480958345</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>42644</v>
+        <v>42278</v>
       </c>
       <c r="B179" t="n">
-        <v>1.7918380087992</v>
+        <v>1.00504968530706</v>
       </c>
       <c r="C179" t="n">
-        <v>431.055797052319</v>
+        <v>271.265403550781</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>42675</v>
+        <v>42309</v>
       </c>
       <c r="B180" t="n">
-        <v>1.75380502786135</v>
+        <v>0.998989991193113</v>
       </c>
       <c r="C180" t="n">
-        <v>421.906344461219</v>
+        <v>270.991423104191</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>42705</v>
+        <v>42339</v>
       </c>
       <c r="B181" t="n">
-        <v>1.77187291363484</v>
+        <v>1.14203155580419</v>
       </c>
       <c r="C181" t="n">
-        <v>426.25286845775</v>
+        <v>309.480756537269</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>42736</v>
+        <v>42370</v>
       </c>
       <c r="B182" t="n">
-        <v>1.73008859490905</v>
+        <v>1.1312631481973</v>
       </c>
       <c r="C182" t="n">
-        <v>416.20097050482</v>
+        <v>350.104174946833</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>42767</v>
+        <v>42401</v>
       </c>
       <c r="B183" t="n">
-        <v>1.69401239697157</v>
+        <v>1.04766204348126</v>
       </c>
       <c r="C183" t="n">
-        <v>407.522253913144</v>
+        <v>366.790855356119</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>42795</v>
+        <v>42430</v>
       </c>
       <c r="B184" t="n">
-        <v>1.65414144338419</v>
+        <v>1.00728366849791</v>
       </c>
       <c r="C184" t="n">
-        <v>397.930647086275</v>
+        <v>369.462438354597</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>42826</v>
+        <v>42461</v>
       </c>
       <c r="B185" t="n">
-        <v>1.60975269433216</v>
+        <v>0.922274467438991</v>
       </c>
       <c r="C185" t="n">
-        <v>387.252211028541</v>
+        <v>340.745773572197</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>42856</v>
+        <v>42491</v>
       </c>
       <c r="B186" t="n">
-        <v>1.62013114879465</v>
+        <v>0.947752804356785</v>
       </c>
       <c r="C186" t="n">
-        <v>389.748917169684</v>
+        <v>322.942762475772</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>42887</v>
+        <v>42522</v>
       </c>
       <c r="B187" t="n">
-        <v>1.6254717481651</v>
+        <v>0.984182069487204</v>
       </c>
       <c r="C187" t="n">
-        <v>391.03368527208</v>
+        <v>317.83447629932</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>42917</v>
+        <v>42552</v>
       </c>
       <c r="B188" t="n">
-        <v>1.71646623208841</v>
+        <v>1.04608806643737</v>
       </c>
       <c r="C188" t="n">
-        <v>412.923889410128</v>
+        <v>332.48285275909</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>42948</v>
+        <v>42583</v>
       </c>
       <c r="B189" t="n">
-        <v>1.736492311062</v>
+        <v>1.00538892727671</v>
       </c>
       <c r="C189" t="n">
-        <v>417.741488652581</v>
+        <v>334.274578673362</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>42979</v>
+        <v>42614</v>
       </c>
       <c r="B190" t="n">
-        <v>1.70591338749998</v>
+        <v>1.00248928138371</v>
       </c>
       <c r="C190" t="n">
-        <v>410.38523088581</v>
+        <v>335.1066821591</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>43009</v>
+        <v>42644</v>
       </c>
       <c r="B191" t="n">
-        <v>1.68994973521252</v>
+        <v>0.989228008744398</v>
       </c>
       <c r="C191" t="n">
-        <v>406.54491450294</v>
+        <v>331.496915909189</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>43040</v>
+        <v>42675</v>
       </c>
       <c r="B192" t="n">
-        <v>1.66019228145006</v>
+        <v>0.976699139733489</v>
       </c>
       <c r="C192" t="n">
-        <v>399.386274666732</v>
+        <v>323.772752592809</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>43070</v>
+        <v>42705</v>
       </c>
       <c r="B193" t="n">
-        <v>1.63548699234118</v>
+        <v>1.01240871556962</v>
       </c>
       <c r="C193" t="n">
-        <v>393.443015267198</v>
+        <v>327.790356588927</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>43101</v>
+        <v>42736</v>
       </c>
       <c r="B194" t="n">
-        <v>1.40857378518379</v>
+        <v>1.0197368203814</v>
       </c>
       <c r="C194" t="n">
-        <v>338.855350035967</v>
+        <v>334.259895979679</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>43132</v>
+        <v>42767</v>
       </c>
       <c r="B195" t="n">
-        <v>1.4360952100717</v>
+        <v>0.973495144475946</v>
       </c>
       <c r="C195" t="n">
-        <v>345.476076732698</v>
+        <v>325.400385729252</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>43160</v>
+        <v>42795</v>
       </c>
       <c r="B196" t="n">
-        <v>1.45182421466629</v>
+        <v>0.973395572391131</v>
       </c>
       <c r="C196" t="n">
-        <v>349.259944793908</v>
+        <v>316.74329472322</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>43191</v>
+        <v>42826</v>
       </c>
       <c r="B197" t="n">
-        <v>1.37990260455895</v>
+        <v>0.967749527680387</v>
       </c>
       <c r="C197" t="n">
-        <v>331.958030883241</v>
+        <v>306.528173864326</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>43221</v>
+        <v>42856</v>
       </c>
       <c r="B198" t="n">
-        <v>1.48265826599371</v>
+        <v>1.01080791396537</v>
       </c>
       <c r="C198" t="n">
-        <v>356.67757769712</v>
+        <v>309.841103995414</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>43252</v>
+        <v>42887</v>
       </c>
       <c r="B199" t="n">
-        <v>1.55403469854676</v>
+        <v>1.00644267718679</v>
       </c>
       <c r="C199" t="n">
-        <v>373.84834027377</v>
+        <v>311.837310207655</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>43282</v>
+        <v>42917</v>
       </c>
       <c r="B200" t="n">
-        <v>1.55851299108375</v>
+        <v>1.06659705555751</v>
       </c>
       <c r="C200" t="n">
-        <v>374.925666432431</v>
+        <v>332.604756880457</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>43313</v>
+        <v>42948</v>
       </c>
       <c r="B201" t="n">
-        <v>1.6017219328506</v>
+        <v>1.01371845366594</v>
       </c>
       <c r="C201" t="n">
-        <v>385.320280645119</v>
+        <v>337.167579826794</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>43344</v>
+        <v>42979</v>
       </c>
       <c r="B202" t="n">
-        <v>1.817919525528</v>
+        <v>0.978187001009929</v>
       </c>
       <c r="C202" t="n">
-        <v>437.330130405367</v>
+        <v>329.812943748548</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>43374</v>
+        <v>43009</v>
       </c>
       <c r="B203" t="n">
-        <v>1.74775090682888</v>
+        <v>0.989262510495423</v>
       </c>
       <c r="C203" t="n">
-        <v>420.449927109714</v>
+        <v>326.271580726574</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>43405</v>
+        <v>43040</v>
       </c>
       <c r="B204" t="n">
-        <v>1.66983027081012</v>
+        <v>0.980859625016707</v>
       </c>
       <c r="C204" t="n">
-        <v>401.704849875639</v>
+        <v>320.026620325076</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>43435</v>
+        <v>43070</v>
       </c>
       <c r="B205" t="n">
-        <v>1.66916925150324</v>
+        <v>0.983710098771558</v>
       </c>
       <c r="C205" t="n">
-        <v>401.545830922591</v>
+        <v>314.813418289508</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="B206" t="n">
-        <v>1.59709739464106</v>
+        <v>1.07998381430456</v>
       </c>
       <c r="C206" t="n">
-        <v>384.207772709623</v>
+        <v>339.993396278561</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>43497</v>
+        <v>43132</v>
       </c>
       <c r="B207" t="n">
-        <v>1.59407771315907</v>
+        <v>1.02617800976072</v>
       </c>
       <c r="C207" t="n">
-        <v>383.48133918066</v>
+        <v>348.89374672492</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>43525</v>
+        <v>43160</v>
       </c>
       <c r="B208" t="n">
-        <v>1.62247600367928</v>
+        <v>1.01600921143962</v>
       </c>
       <c r="C208" t="n">
-        <v>390.313010177144</v>
+        <v>354.4792604862</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="B209" t="n">
-        <v>1.63016844041397</v>
+        <v>0.940649897617424</v>
       </c>
       <c r="C209" t="n">
-        <v>392.163551036117</v>
+        <v>333.440880083844</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>43586</v>
+        <v>43221</v>
       </c>
       <c r="B210" t="n">
-        <v>1.61670140135467</v>
+        <v>1.09874555605017</v>
       </c>
       <c r="C210" t="n">
-        <v>388.923835600272</v>
+        <v>366.366685197582</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>43617</v>
+        <v>43252</v>
       </c>
       <c r="B211" t="n">
-        <v>1.57177486796314</v>
+        <v>1.06392420803909</v>
       </c>
       <c r="C211" t="n">
-        <v>378.116026766671</v>
+        <v>389.786385400746</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="B212" t="n">
-        <v>1.52504472644871</v>
+        <v>1.00376489718225</v>
       </c>
       <c r="C212" t="n">
-        <v>366.874330643499</v>
+        <v>391.25389106482</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>43678</v>
+        <v>43313</v>
       </c>
       <c r="B213" t="n">
-        <v>1.7159279669284</v>
+        <v>1.03763802506091</v>
       </c>
       <c r="C213" t="n">
-        <v>412.794400965058</v>
+        <v>405.979914821896</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>43709</v>
+        <v>43344</v>
       </c>
       <c r="B214" t="n">
-        <v>1.71129910569888</v>
+        <v>1.17931847248251</v>
       </c>
       <c r="C214" t="n">
-        <v>411.680853056746</v>
+        <v>478.779613006339</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="B215" t="n">
-        <v>1.72803560576934</v>
+        <v>0.941502090421419</v>
       </c>
       <c r="C215" t="n">
-        <v>415.707090552718</v>
+        <v>450.772006496626</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>43770</v>
+        <v>43405</v>
       </c>
       <c r="B216" t="n">
-        <v>1.68364896667586</v>
+        <v>0.945957816238257</v>
       </c>
       <c r="C216" t="n">
-        <v>405.029162079857</v>
+        <v>426.411302886886</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>43800</v>
+        <v>43435</v>
       </c>
       <c r="B217" t="n">
-        <v>1.65320672136352</v>
+        <v>1.00286079581543</v>
       </c>
       <c r="C217" t="n">
-        <v>397.705784490626</v>
+        <v>427.631178557839</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="B218" t="n">
-        <v>1.58605094709051</v>
+        <v>0.977141283559456</v>
       </c>
       <c r="C218" t="n">
-        <v>381.550369958864</v>
+        <v>417.85607870605</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>43862</v>
+        <v>43497</v>
       </c>
       <c r="B219" t="n">
-        <v>1.55901831186824</v>
+        <v>0.99719151358365</v>
       </c>
       <c r="C219" t="n">
-        <v>375.047229571765</v>
+        <v>416.682535585014</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>43891</v>
+        <v>43525</v>
       </c>
       <c r="B220" t="n">
-        <v>1.49248337493506</v>
+        <v>1.02224727392328</v>
       </c>
       <c r="C220" t="n">
-        <v>359.041167566876</v>
+        <v>425.952586093219</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="B221" t="n">
-        <v>1.46986245493512</v>
+        <v>1.00489810116468</v>
       </c>
       <c r="C221" t="n">
-        <v>353.599337081783</v>
+        <v>428.038944951261</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>43952</v>
+        <v>43586</v>
       </c>
       <c r="B222" t="n">
-        <v>1.46789505384952</v>
+        <v>0.991698206595296</v>
       </c>
       <c r="C222" t="n">
-        <v>353.126046729134</v>
+        <v>424.485454061108</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>43983</v>
+        <v>43617</v>
       </c>
       <c r="B223" t="n">
-        <v>1.5391159460864</v>
+        <v>0.965208586433363</v>
       </c>
       <c r="C223" t="n">
-        <v>370.259391551145</v>
+        <v>409.717005075847</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="B224" t="n">
-        <v>1.56268810076387</v>
+        <v>0.964384594851654</v>
       </c>
       <c r="C224" t="n">
-        <v>375.930057020257</v>
+        <v>395.124767943903</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44044</v>
+        <v>43678</v>
       </c>
       <c r="B225" t="n">
-        <v>1.56194022766887</v>
+        <v>1.15427906370426</v>
       </c>
       <c r="C225" t="n">
-        <v>375.750143974838</v>
+        <v>456.084247188653</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44075</v>
+        <v>43709</v>
       </c>
       <c r="B226" t="n">
-        <v>1.56834957091984</v>
+        <v>0.997847356722658</v>
       </c>
       <c r="C226" t="n">
-        <v>377.292015812616</v>
+        <v>455.10246050004</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="B227" t="n">
-        <v>1.54722179404295</v>
+        <v>1.01015343488875</v>
       </c>
       <c r="C227" t="n">
-        <v>372.209385208238</v>
+        <v>459.723313700437</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44136</v>
+        <v>43770</v>
       </c>
       <c r="B228" t="n">
-        <v>1.57300810001986</v>
+        <v>0.971317720741852</v>
       </c>
       <c r="C228" t="n">
-        <v>378.412700810054</v>
+        <v>446.5374012354</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44166</v>
+        <v>43800</v>
       </c>
       <c r="B229" t="n">
-        <v>1.62041337469026</v>
+        <v>0.976870769676507</v>
       </c>
       <c r="C229" t="n">
-        <v>389.816811202393</v>
+        <v>436.209334834172</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="B230" t="n">
-        <v>2.38414722805399</v>
+        <v>0.977676679359722</v>
       </c>
       <c r="C230" t="n">
-        <v>573.545420195437</v>
+        <v>426.471693986387</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44228</v>
+        <v>43862</v>
       </c>
       <c r="B231" t="n">
-        <v>2.37584053144978</v>
+        <v>0.982358585698113</v>
       </c>
       <c r="C231" t="n">
-        <v>571.54710912713</v>
+        <v>418.948130144745</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44256</v>
+        <v>43891</v>
       </c>
       <c r="B232" t="n">
-        <v>2.29791432224227</v>
+        <v>0.95009089750002</v>
       </c>
       <c r="C232" t="n">
-        <v>552.800691171792</v>
+        <v>398.038804975176</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="B233" t="n">
-        <v>2.28524147514726</v>
+        <v>0.989999928770374</v>
       </c>
       <c r="C233" t="n">
-        <v>549.75203153926</v>
+        <v>394.058388573269</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44317</v>
+        <v>43952</v>
       </c>
       <c r="B234" t="n">
-        <v>2.29682564111245</v>
+        <v>1.00029936204819</v>
       </c>
       <c r="C234" t="n">
-        <v>552.53879120659</v>
+        <v>394.176354699577</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44348</v>
+        <v>43983</v>
       </c>
       <c r="B235" t="n">
-        <v>2.27967835079188</v>
+        <v>1.04963512619749</v>
       </c>
       <c r="C235" t="n">
-        <v>548.413731429912</v>
+        <v>413.741347809156</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44378</v>
+        <v>44013</v>
       </c>
       <c r="B236" t="n">
-        <v>2.21290755033416</v>
+        <v>1.01525800122051</v>
       </c>
       <c r="C236" t="n">
-        <v>532.35092861527</v>
+        <v>420.054213799005</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44409</v>
+        <v>44044</v>
       </c>
       <c r="B237" t="n">
-        <v>2.17640630229098</v>
+        <v>1.00008974658059</v>
       </c>
       <c r="C237" t="n">
-        <v>523.569959302535</v>
+        <v>420.091912228356</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44440</v>
+        <v>44075</v>
       </c>
       <c r="B238" t="n">
-        <v>2.13593575050885</v>
+        <v>1.00398002891559</v>
       </c>
       <c r="C238" t="n">
-        <v>513.83410937083</v>
+        <v>421.763890186233</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44470</v>
+        <v>44105</v>
       </c>
       <c r="B239" t="n">
-        <v>2.06739659476297</v>
+        <v>0.985807571107325</v>
       </c>
       <c r="C239" t="n">
-        <v>497.345899909791</v>
+        <v>415.778036165266</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44501</v>
+        <v>44136</v>
       </c>
       <c r="B240" t="n">
-        <v>2.03608327047922</v>
+        <v>1.01686580900995</v>
       </c>
       <c r="C240" t="n">
-        <v>489.812970096266</v>
+        <v>422.79046911376</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44531</v>
+        <v>44166</v>
       </c>
       <c r="B241" t="n">
-        <v>1.98549494545759</v>
+        <v>1.03047234716769</v>
       </c>
       <c r="C241" t="n">
-        <v>477.64312513447</v>
+        <v>435.673887067786</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="B242" t="n">
-        <v>1.79429140245547</v>
+        <v>0.99331874314288</v>
       </c>
       <c r="C242" t="n">
-        <v>431.646000827882</v>
+        <v>432.763037922347</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44593</v>
+        <v>44228</v>
       </c>
       <c r="B243" t="n">
-        <v>1.80210205915171</v>
+        <v>0.996761059961903</v>
       </c>
       <c r="C243" t="n">
-        <v>433.524981422759</v>
+        <v>431.361344391811</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44621</v>
+        <v>44256</v>
       </c>
       <c r="B244" t="n">
-        <v>1.78185959529376</v>
+        <v>0.964830840622636</v>
       </c>
       <c r="C244" t="n">
-        <v>428.655327274481</v>
+        <v>416.190728521662</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44652</v>
+        <v>44287</v>
       </c>
       <c r="B245" t="n">
-        <v>1.75769179344394</v>
+        <v>0.993329291450945</v>
       </c>
       <c r="C245" t="n">
-        <v>422.841369183281</v>
+        <v>413.414441470875</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44682</v>
+        <v>44317</v>
       </c>
       <c r="B246" t="n">
-        <v>1.6957947148851</v>
+        <v>1.00208690626755</v>
       </c>
       <c r="C246" t="n">
-        <v>407.951019496331</v>
+        <v>414.277198659878</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44713</v>
+        <v>44348</v>
       </c>
       <c r="B247" t="n">
-        <v>1.67694207101747</v>
+        <v>0.991084606278296</v>
       </c>
       <c r="C247" t="n">
-        <v>403.415709167496</v>
+        <v>410.5837543239</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44743</v>
+        <v>44378</v>
       </c>
       <c r="B248" t="n">
-        <v>1.58325679373868</v>
+        <v>0.968672632216036</v>
       </c>
       <c r="C248" t="n">
-        <v>380.878190892315</v>
+        <v>397.721246046075</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44774</v>
+        <v>44409</v>
       </c>
       <c r="B249" t="n">
-        <v>1.59426915928437</v>
+        <v>0.982809665927314</v>
       </c>
       <c r="C249" t="n">
-        <v>383.527394662085</v>
+        <v>390.884284958738</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44805</v>
+        <v>44440</v>
       </c>
       <c r="B250" t="n">
-        <v>1.58371784869166</v>
+        <v>0.980128583680537</v>
       </c>
       <c r="C250" t="n">
-        <v>380.989105165407</v>
+        <v>383.116860599587</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44835</v>
+        <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>1.58223553539359</v>
+        <v>0.965614392909896</v>
       </c>
       <c r="C251" t="n">
-        <v>380.632510575357</v>
+        <v>369.943154761416</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>1.61125058489884</v>
+        <v>0.983727106332573</v>
       </c>
       <c r="C252" t="n">
-        <v>387.61255298409</v>
+        <v>363.923109140991</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44896</v>
+        <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>1.67756114932359</v>
+        <v>0.972842055119426</v>
       </c>
       <c r="C253" t="n">
-        <v>403.564638530179</v>
+        <v>354.039705402173</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44927</v>
+        <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>1.00891734605704</v>
+        <v>0.996052257414481</v>
       </c>
       <c r="C254" t="n">
-        <v>242.711488777926</v>
+        <v>352.642047780192</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44958</v>
+        <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>1.008027103404</v>
+        <v>1.00454717490152</v>
       </c>
       <c r="C255" t="n">
-        <v>242.497326418108</v>
+        <v>354.245572849079</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44986</v>
+        <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>0.993982058045598</v>
+        <v>0.987290018376467</v>
       </c>
       <c r="C256" t="n">
-        <v>239.118562159358</v>
+        <v>349.743118127949</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>45017</v>
+        <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>1.00952984038187</v>
+        <v>0.986225266587236</v>
       </c>
       <c r="C257" t="n">
-        <v>242.858834256749</v>
+        <v>344.925499912787</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>45047</v>
+        <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>1.00483084111048</v>
+        <v>0.964523984671376</v>
       </c>
       <c r="C258" t="n">
-        <v>241.728413500894</v>
+        <v>332.688917590648</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>45078</v>
+        <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>1.0327569648279</v>
+        <v>0.989318954653304</v>
       </c>
       <c r="C259" t="n">
-        <v>248.446497087959</v>
+        <v>329.135452175519</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>45108</v>
+        <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>1.053038220812</v>
+        <v>0.941288887147225</v>
       </c>
       <c r="C260" t="n">
-        <v>253.325483313566</v>
+        <v>309.811543498993</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>45139</v>
+        <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>1.10722219855451</v>
+        <v>1.00670467887935</v>
       </c>
       <c r="C261" t="n">
-        <v>266.360321060374</v>
+        <v>311.888730411269</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>45170</v>
+        <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>1.06232107450942</v>
+        <v>0.992910097383008</v>
       </c>
       <c r="C262" t="n">
-        <v>255.558624858622</v>
+        <v>309.677469685316</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>45200</v>
+        <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>0.973202066107572</v>
+        <v>0.998587893658924</v>
       </c>
       <c r="C263" t="n">
-        <v>234.119596882586</v>
+        <v>309.240172166685</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>45231</v>
+        <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>0.906671854727389</v>
+        <v>1.02088359391535</v>
       </c>
       <c r="C264" t="n">
-        <v>218.114671686383</v>
+        <v>315.698218344527</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>45261</v>
+        <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>1.26357080245762</v>
+        <v>1.0429265817358</v>
       </c>
       <c r="C265" t="n">
-        <v>303.972522466147</v>
+        <v>329.25006371814</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>1.51002291901153</v>
+        <v>1.00969334797192</v>
       </c>
       <c r="C266" t="n">
-        <v>363.260590368874</v>
+        <v>332.441599155537</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>45323</v>
+        <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>1.37046777080144</v>
+        <v>0.998627917965905</v>
       </c>
       <c r="C267" t="n">
-        <v>329.688328061096</v>
+        <v>331.98546200995</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>45352</v>
+        <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>1.27461403005707</v>
+        <v>0.985106868641991</v>
       </c>
       <c r="C268" t="n">
-        <v>306.62915060526</v>
+        <v>327.041158915287</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>45383</v>
+        <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>1.19116280932899</v>
+        <v>1.01471700822473</v>
       </c>
       <c r="C269" t="n">
-        <v>286.553601203314</v>
+        <v>331.854226340866</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>45413</v>
+        <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>1.17946335810067</v>
+        <v>0.994301162802929</v>
       </c>
       <c r="C270" t="n">
-        <v>283.739107789551</v>
+        <v>329.96304313179</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>45444</v>
+        <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>1.12587380297309</v>
+        <v>1.03025303693256</v>
       </c>
       <c r="C271" t="n">
-        <v>270.847268077613</v>
+        <v>339.945427262035</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>45474</v>
+        <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>1.10315281875483</v>
+        <v>1.0209993288545</v>
       </c>
       <c r="C272" t="n">
-        <v>265.381365516153</v>
+        <v>347.084053081694</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>45505</v>
+        <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>1.08721057290118</v>
+        <v>1.06085630670899</v>
       </c>
       <c r="C273" t="n">
-        <v>261.546198799351</v>
+        <v>368.206306669834</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>45536</v>
+        <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>1.07691248427162</v>
+        <v>0.954938190171081</v>
       </c>
       <c r="C274" t="n">
-        <v>259.068825967358</v>
+        <v>351.614264100869</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>45566</v>
+        <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>1.06260980928939</v>
+        <v>0.90502216834318</v>
       </c>
       <c r="C275" t="n">
-        <v>255.628084709403</v>
+        <v>318.21870371696</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>45597</v>
+        <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>1.03439964084329</v>
+        <v>0.919588809514258</v>
       </c>
       <c r="C276" t="n">
-        <v>248.84166953973</v>
+        <v>292.63035891625</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1.46057766301308</v>
+      </c>
+      <c r="C277" t="n">
+        <v>427.409365752576</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1.05668244755305</v>
+      </c>
+      <c r="C278" t="n">
+        <v>451.635974710529</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.896621493405487</v>
+      </c>
+      <c r="C279" t="n">
+        <v>404.946522120597</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.922151552889758</v>
+      </c>
+      <c r="C280" t="n">
+        <v>373.422064210815</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.927747607698029</v>
+      </c>
+      <c r="C281" t="n">
+        <v>346.441426733244</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.987732811307024</v>
+      </c>
+      <c r="C282" t="n">
+        <v>342.191564380443</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.950688895545261</v>
+      </c>
+      <c r="C283" t="n">
+        <v>325.317720405749</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.976886790038495</v>
+      </c>
+      <c r="C284" t="n">
+        <v>317.798583629812</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.983314835206504</v>
+      </c>
+      <c r="C285" t="n">
+        <v>312.496061890809</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.987572576508229</v>
+      </c>
+      <c r="C286" t="n">
+        <v>308.612540990182</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.985502988699176</v>
+      </c>
+      <c r="C287" t="n">
+        <v>304.138581495871</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.972588897419953</v>
+      </c>
+      <c r="C288" t="n">
+        <v>295.801807639938</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
         <v>45627</v>
       </c>
-      <c r="B277" t="n">
-        <v>1.00472465063182</v>
-      </c>
-      <c r="C277" t="n">
-        <v>241.702867652891</v>
+      <c r="B289" t="n">
+        <v>0.969464869574357</v>
+      </c>
+      <c r="C289" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>286.769460863511</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="C301" t="n">
+        <v>286.769460863511</v>
       </c>
     </row>
   </sheetData>
